--- a/medicine/Enfance/Joanna_Chmielewska/Joanna_Chmielewska.xlsx
+++ b/medicine/Enfance/Joanna_Chmielewska/Joanna_Chmielewska.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joanna Chmielewska, de son vrai nom Irena Barbara Kühn, née Irena Barbara Becker le 2 avril 1932 à Varsovie, et morte dans cette ville le 7 octobre 2013[1], est une femme de lettres polonaise auteur de romans à sensation et policiers ainsi que d'ouvrages de littérature d'enfance et de jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joanna Chmielewska, de son vrai nom Irena Barbara Kühn, née Irena Barbara Becker le 2 avril 1932 à Varsovie, et morte dans cette ville le 7 octobre 2013, est une femme de lettres polonaise auteur de romans à sensation et policiers ainsi que d'ouvrages de littérature d'enfance et de jeunesse.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Joanna Chmielewska fait des études d'architecture à l'École polytechnique de Varsovie. Elle travaille ensuite dans des bureaux d'études et commence rapidement à écrire des nouvelles publiées dans le magazine Kultura i Życie et des articles sur l'architecture dans Kultura i Sztuka.
 Elle publie en 1964 son premier roman Klin (pl), adapté au cinéma par le réalisateur Jan Batory sous le titre Lekarstwo na miłość (pl) (Médicament pour l'amour).
@@ -548,7 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans policiers
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Klin (pl) (1964)
 Wszyscy jesteśmy podejrzani (1966)
 Dalej Krokodyl z kraju Karoliny (1969)
@@ -596,8 +616,43 @@
 Byczki w pomidorach (2010)
 Gwałt (2011)
 Krwawa zemsta (2012)
-Romans de littérature d'enfance et de jeunesse
-Zwyczajne życie (1974)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Joanna_Chmielewska</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joanna_Chmielewska</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Zwyczajne życie (1974)
 Kawałek świata (1976)
 Nawiedzony dom (1979)
 Skarby (1988)
@@ -605,9 +660,43 @@
 Ślepe szczęście (1992)
 Wszelki wypadek (1993)
 Pafnucy (1994)
-Las Pafnucego (2003)
-Conseils pratiques
-Jak wytrzymać z mężczyzną (1996, 2011)
+Las Pafnucego (2003)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Joanna_Chmielewska</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joanna_Chmielewska</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Conseils pratiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Jak wytrzymać z mężczyzną (1996, 2011)
 Jak wytrzymać ze współczesną kobietą (1996, 2011)
 Jak wytrzymać ze sobą nawzajem (2001, 2011)
 Przeciwko babom! (2005)
